--- a/questions.xlsx
+++ b/questions.xlsx
@@ -33,19 +33,19 @@
     <t xml:space="preserve">what are the things you were intreseted in your childhood but due to xyz reason you have it leave it?</t>
   </si>
   <si>
-    <t xml:space="preserve">if you can make 1 rule that everyone has to follow then what would it be and why?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">are you sure that canabilism wont come in practise?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">whats the moment of your life u forget?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">whats a memory u have which you wanted to share but couldn't?</t>
-  </si>
-  <si>
     <t xml:space="preserve">what a belief that divides the world by 50 - 50?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's the best Instgram comment you read, Explain?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's your "It always happen to good people" moment?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is guilt over ex good or bad?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's your secret Eureka Moment?</t>
   </si>
 </sst>
 </file>
@@ -68,7 +68,6 @@
     <font>
       <b/>
       <sz val="12.000000"/>
-      <color indexed="64"/>
       <name val="Arial"/>
     </font>
   </fonts>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -16,36 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Question</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what are the things which you do which are boderline illegal?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">People with anger issues, what have you tried to control it?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what are your beliefs for god?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what are the things you were intreseted in your childhood but due to xyz reason you have it leave it?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what a belief that divides the world by 50 - 50?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What's the best Instgram comment you read, Explain?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What's your "It always happen to good people" moment?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is guilt over ex good or bad?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What's your secret Eureka Moment?</t>
   </si>
 </sst>
 </file>
@@ -622,50 +595,18 @@
       </c>
     </row>
     <row r="2" ht="16.5">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" ht="15">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="2"/>
     </row>
-    <row r="4" ht="14.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
+    <row r="4" ht="14.25"/>
+    <row r="5" ht="14.25"/>
+    <row r="6" ht="14.25"/>
+    <row r="7" ht="14.25"/>
+    <row r="8" ht="14.25"/>
+    <row r="9" ht="14.25"/>
+    <row r="10" ht="14.25"/>
   </sheetData>
   <sortState ref="A1:A3" columnSort="0">
     <sortCondition sortBy="value" descending="0" ref="A1:A3"/>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -16,36 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Question</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what are the things which you do which are boderline illegal?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">People with anger issues, what have you tried to control it?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what are your beliefs for god?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what are the things you were intreseted in your childhood but due to xyz reason you have it leave it?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if you can make 1 rule that everyone has to follow then what would it be and why?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">are you sure that canabilism wont come in practise?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">whats the moment of your life u forget?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">whats a memory u have which you wanted to share but couldn't?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what a belief that divides the world by 50 - 50?</t>
   </si>
 </sst>
 </file>
@@ -68,7 +41,6 @@
     <font>
       <b/>
       <sz val="12.000000"/>
-      <color indexed="64"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -623,50 +595,18 @@
       </c>
     </row>
     <row r="2" ht="16.5">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" ht="15">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="2"/>
     </row>
-    <row r="4" ht="14.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
+    <row r="4" ht="14.25"/>
+    <row r="5" ht="14.25"/>
+    <row r="6" ht="14.25"/>
+    <row r="7" ht="14.25"/>
+    <row r="8" ht="14.25"/>
+    <row r="9" ht="14.25"/>
+    <row r="10" ht="14.25"/>
   </sheetData>
   <sortState ref="A1:A3" columnSort="0">
     <sortCondition sortBy="value" descending="0" ref="A1:A3"/>
